--- a/Tools/Luban/Datas/PowerUps.xlsx
+++ b/Tools/Luban/Datas/PowerUps.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF74893-4281-464C-9271-5408C19118B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65748A8B-82DF-49F0-8A70-946B2BCF3BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>class_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerCollector</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一架无人机，帮助你收集经验</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -535,7 +547,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -545,7 +557,7 @@
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="14" style="9" customWidth="1"/>
     <col min="5" max="5" width="19.77734375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="9" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" style="9" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" style="9" customWidth="1"/>
     <col min="9" max="9" width="7.21875" style="9" customWidth="1"/>
@@ -721,13 +733,23 @@
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:21" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="B6" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>

--- a/Tools/Luban/Datas/PowerUps.xlsx
+++ b/Tools/Luban/Datas/PowerUps.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65748A8B-82DF-49F0-8A70-946B2BCF3BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B96C00-EE37-47CB-A17E-A832F2DF9F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -112,6 +112,70 @@
   </si>
   <si>
     <t>召唤一架无人机，帮助你收集经验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地雷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerMine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在所有友方单位处放置一个地雷，敌人经过会激活地雷，造成巨大伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑洞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerBlackHole</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerTurret</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在玩家位置产生一个黑洞，吸收所有敌人，造成伤害
+不影响BOSS
+持续 5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一个固定炮塔，炮塔会顺时针旋转射击。
+持续 5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即回复 20% 生命值和护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerMedi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>急救针管</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerHyper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超频模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+33% 的推力、射速、再生
+持续 10s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -227,6 +291,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,10 +611,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -555,9 +622,9 @@
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14" style="9" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="45" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" style="9" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" style="9" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" style="9" customWidth="1"/>
     <col min="9" max="9" width="7.21875" style="9" customWidth="1"/>
@@ -570,7 +637,7 @@
     <col min="16" max="16" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,7 +767,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="41.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="3">
         <v>1001</v>
@@ -733,7 +800,7 @@
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:21" ht="36.299999999999997" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1002</v>
@@ -766,13 +833,23 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:21" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="B7" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -789,13 +866,23 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:21" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="B8" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -812,13 +899,23 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:21" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A9" s="10"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="B9" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -835,13 +932,23 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:21" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="B10" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -858,13 +965,23 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:21" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="B11" s="3">
+        <v>1007</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>

--- a/Tools/Luban/Datas/PowerUps.xlsx
+++ b/Tools/Luban/Datas/PowerUps.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B96C00-EE37-47CB-A17E-A832F2DF9F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185A8456-F2B6-487D-A05B-D8D3A467AC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -158,10 +158,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PowerMedi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>急救针管</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -176,6 +172,14 @@
   <si>
     <t>+33% 的推力、射速、再生
 持续 10s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerMed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -288,9 +292,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -609,12 +610,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U100"/>
+  <dimension ref="A1:U97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -768,7 +769,9 @@
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="B5" s="3">
         <v>1001</v>
       </c>
@@ -801,7 +804,9 @@
       <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:21" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="B6" s="3">
         <v>1002</v>
       </c>
@@ -833,22 +838,24 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:21" ht="36.299999999999997" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:21" ht="72.599999999999994" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="B7" s="3">
         <v>1003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -866,22 +873,24 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:21" ht="72.599999999999994" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
+    <row r="8" spans="1:21" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="B8" s="3">
         <v>1004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -900,21 +909,23 @@
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="1:21" ht="36.299999999999997" x14ac:dyDescent="0.45">
-      <c r="A9" s="10"/>
+      <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="B9" s="3">
         <v>1005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -932,22 +943,24 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:21" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:21" ht="36.299999999999997" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="B10" s="3">
         <v>1006</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -966,21 +979,23 @@
       <c r="U10" s="3"/>
     </row>
     <row r="11" spans="1:21" ht="36.299999999999997" x14ac:dyDescent="0.45">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="B11" s="3">
         <v>1007</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1563,7 +1578,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="3"/>
-      <c r="M36" s="4"/>
+      <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
@@ -1586,7 +1601,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="3"/>
-      <c r="M37" s="4"/>
+      <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
@@ -1609,7 +1624,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="3"/>
-      <c r="M38" s="4"/>
+      <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -2976,75 +2991,6 @@
       <c r="T97" s="3"/>
       <c r="U97" s="3"/>
     </row>
-    <row r="98" spans="1:21" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
-      <c r="O98" s="3"/>
-      <c r="P98" s="3"/>
-      <c r="Q98" s="3"/>
-      <c r="R98" s="3"/>
-      <c r="S98" s="3"/>
-      <c r="T98" s="3"/>
-      <c r="U98" s="3"/>
-    </row>
-    <row r="99" spans="1:21" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-      <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
-      <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
-      <c r="S99" s="3"/>
-      <c r="T99" s="3"/>
-      <c r="U99" s="3"/>
-    </row>
-    <row r="100" spans="1:21" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
-      <c r="O100" s="3"/>
-      <c r="P100" s="3"/>
-      <c r="Q100" s="3"/>
-      <c r="R100" s="3"/>
-      <c r="S100" s="3"/>
-      <c r="T100" s="3"/>
-      <c r="U100" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
